--- a/public/files/tmp/data_pegawai.xlsx
+++ b/public/files/tmp/data_pegawai.xlsx
@@ -89,11 +89,11 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Dian Permana</t>
+          <t>Rahadian</t>
         </is>
       </c>
       <c r="F2" s="0">
-        <v>1026</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -102,11 +102,11 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Dodo Sandra</t>
+          <t>Dani Setiawan</t>
         </is>
       </c>
       <c r="F3" s="0">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -115,11 +115,11 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Deni Sukmana</t>
+          <t>Ahmad Ardiansyah</t>
         </is>
       </c>
       <c r="F4" s="0">
-        <v>1015</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -128,11 +128,11 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Heri F</t>
+          <t>Sudarto</t>
         </is>
       </c>
       <c r="F5" s="0">
-        <v>1027</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -141,11 +141,11 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Yudi Zartika Agusta</t>
+          <t>Deni Sukmana</t>
         </is>
       </c>
       <c r="F6" s="0">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -154,11 +154,11 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Siswandi</t>
         </is>
       </c>
       <c r="F7" s="0">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -167,11 +167,11 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Dani Setiawan</t>
+          <t>Dodo Sandra</t>
         </is>
       </c>
       <c r="F8" s="0">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -180,11 +180,11 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Rusdi A</t>
+          <t>Jarot</t>
         </is>
       </c>
       <c r="F9" s="0">
-        <v>1028</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -193,11 +193,21 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>Faizudin</t>
+          <t>H. Samsul Rizal, SH, MH</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
         </is>
       </c>
       <c r="F10" s="0">
-        <v>1024</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -206,11 +216,21 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>H. Abdul Hakim Lubis, SH., Msi</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
         </is>
       </c>
       <c r="F11" s="0">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -219,11 +239,21 @@
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>Siswandi</t>
+          <t>Dra. Hj. RT. Ati Marliati, MM</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
         </is>
       </c>
       <c r="F12" s="0">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -232,11 +262,21 @@
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>Sunaji</t>
+          <t>Ir. H. Zamhari Hamid</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Direksi</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Dereksi</t>
         </is>
       </c>
       <c r="F13" s="0">
-        <v>1029</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -245,11 +285,21 @@
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>Abdul Rojak</t>
+          <t>H. Arief Rivai, SH.,MH.,M.Si</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Direksi</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Dereksi</t>
         </is>
       </c>
       <c r="F14" s="0">
-        <v>1025</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -258,175 +308,245 @@
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>Sumarna s</t>
+          <t>Drs. Akmal Firmansyah</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Direksi</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Dereksi</t>
         </is>
       </c>
       <c r="F15" s="0">
-        <v>1018</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="0">
         <v>15</v>
       </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>050112002</t>
+        </is>
+      </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>Arif T.P</t>
+          <t>Komawati</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>SDM Dan Umum</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Manager</t>
         </is>
       </c>
       <c r="F16" s="0">
-        <v>1014</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="0">
         <v>16</v>
       </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>050112020</t>
+        </is>
+      </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>Ilham</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>SDM Dan Umum</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor SDM, Umum &amp; Pelatihan</t>
         </is>
       </c>
       <c r="F17" s="0">
-        <v>1030</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="0">
         <v>17</v>
       </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>050112029</t>
+        </is>
+      </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>H. Samsul Rizal, SH, MH</t>
+          <t>Bambang Andrianto</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>Staf SDM &amp; Legal</t>
         </is>
       </c>
       <c r="F18" s="0">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="0">
         <v>18</v>
       </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>050112052</t>
+        </is>
+      </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>H. Abdul Hakim Lubis, SH., Msi</t>
+          <t>Shaomi Safitri</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>Staf Umum &amp; Aset</t>
         </is>
       </c>
       <c r="F19" s="0">
-        <v>1006</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="0">
         <v>19</v>
       </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>050112045</t>
+        </is>
+      </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>Dra. Hj. RT. Ati Marliati, MM</t>
+          <t>Ferry Margana</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>Petugas Aset</t>
         </is>
       </c>
       <c r="F20" s="0">
-        <v>1007</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="0">
         <v>20</v>
       </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>150112070</t>
+        </is>
+      </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>H. Arief Rivai, SH.,MH.,M.Si</t>
+          <t>Suyono</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Dewan Direksi</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Dewan Dereksi</t>
+          <t>Petugas Aset</t>
         </is>
       </c>
       <c r="F21" s="0">
-        <v>1005</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="0">
         <v>21</v>
       </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>050112010</t>
+        </is>
+      </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>Drs. Akmal Firmansyah</t>
+          <t>Husni</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Dewan Direksi</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>Dewan Dereksi</t>
+          <t>Petugas Aset</t>
         </is>
       </c>
       <c r="F22" s="0">
-        <v>145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="0">
         <v>22</v>
       </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>050112030</t>
+        </is>
+      </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>Ir. H. Zamhari Hamid</t>
+          <t>Muhammad Yusuf</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>Dewan Direksi</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>Dewan Dereksi</t>
+          <t>Staf Legal &amp; Procurement</t>
         </is>
       </c>
       <c r="F23" s="0">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -435,12 +555,12 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>050112002</t>
+          <t>050112013</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>Komawati</t>
+          <t>Oyo Sutaryo</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -450,11 +570,11 @@
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F24" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -463,12 +583,12 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>050112020</t>
+          <t>050112021</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>Ilham</t>
+          <t>Samun Darimi</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
@@ -478,11 +598,11 @@
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>Supervisor SDM &amp; Legal</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F25" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -491,12 +611,12 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>050112029</t>
+          <t>050112025</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>Bambang Andrianto</t>
+          <t>Yuri Setiawan</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
@@ -506,11 +626,11 @@
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>Staf SDM &amp; Legal</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F26" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -519,12 +639,12 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>050112052</t>
+          <t>050112001</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>Shaomi Safitri</t>
+          <t>Hambali B.H. Ahmad</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
@@ -534,11 +654,11 @@
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>Staf Umum &amp; Aset</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F27" s="0">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -547,12 +667,12 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>050112010</t>
+          <t>050112022</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>Husni</t>
+          <t>Isnaidi</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
@@ -562,11 +682,11 @@
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>Petugas Umum &amp; Aset</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F28" s="0">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -575,12 +695,12 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>050112045</t>
+          <t>050112060</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>Ferry Margana</t>
+          <t>Rahmatulloh</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
@@ -590,11 +710,11 @@
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>Petugas Umum &amp; Aset</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F29" s="0">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -603,12 +723,12 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>050112030</t>
+          <t>050112027</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>Muhammad Yusuf</t>
+          <t>Muis Sutomi</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
@@ -618,11 +738,11 @@
       </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
-          <t>Petugas SDM &amp; Legal</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F30" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -631,12 +751,12 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>050112011</t>
+          <t>050112032</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>Suntani</t>
+          <t>Sarwoko</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
@@ -650,7 +770,7 @@
         </is>
       </c>
       <c r="F31" s="0">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -659,12 +779,12 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>050112025</t>
+          <t>050112011</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>Yuri Setiawan</t>
+          <t>Suntani</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
@@ -678,7 +798,7 @@
         </is>
       </c>
       <c r="F32" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -687,12 +807,12 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>050112060</t>
+          <t>050112056</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>Rahmatulloh</t>
+          <t>Diki Gunawan</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
@@ -706,7 +826,7 @@
         </is>
       </c>
       <c r="F33" s="0">
-        <v>1000</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -715,12 +835,12 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>050112021</t>
+          <t>050112017</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>Samun Darimi</t>
+          <t>Andi Yusuf Izzan</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
@@ -730,11 +850,11 @@
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Supervisor Sistem &amp; Information Technology</t>
         </is>
       </c>
       <c r="F34" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -743,12 +863,12 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>050112013</t>
+          <t>050112059</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>Oyo Sutaryo</t>
+          <t>Fenny Pattimeta</t>
         </is>
       </c>
       <c r="D35" s="0" t="inlineStr">
@@ -758,11 +878,11 @@
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Administrasi Resepsionis</t>
         </is>
       </c>
       <c r="F35" s="0">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -771,26 +891,26 @@
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>050112022</t>
+          <t>050112005</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>Isnaidi</t>
+          <t>Ridia Al-Qaddrina</t>
         </is>
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="F36" s="0">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -799,26 +919,26 @@
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>050112056</t>
+          <t>050112008</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>Diki Gunawan</t>
+          <t>Diana Dwi Wiyanti</t>
         </is>
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Supervisor Perbendaharaa</t>
         </is>
       </c>
       <c r="F37" s="0">
-        <v>164</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -827,26 +947,26 @@
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>050112032</t>
+          <t>050112007</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>Sarwoko</t>
+          <t>Marhamah Sam</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Supervisor Perbendaharaa</t>
         </is>
       </c>
       <c r="F38" s="0">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -855,26 +975,26 @@
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>050112027</t>
+          <t>050112018</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>Muis Sutomi</t>
+          <t>Makhrur</t>
         </is>
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Supervisor Verifikasi &amp; Perpajakan</t>
         </is>
       </c>
       <c r="F39" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -883,26 +1003,26 @@
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>050112001</t>
+          <t>050112015</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>Hambali B.H. Ahmad</t>
+          <t>Nana Andi Indah Purnamasari</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Supervisor Penagihan</t>
         </is>
       </c>
       <c r="F40" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -911,26 +1031,26 @@
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>050112059</t>
+          <t>050112024</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>Fenny Pattimeta</t>
+          <t>Risnawati</t>
         </is>
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
-          <t>Administrasi Resepsionis</t>
+          <t>Staf Verifikasi &amp; Perpajakan</t>
         </is>
       </c>
       <c r="F41" s="0">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -939,12 +1059,12 @@
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>050112005</t>
+          <t>050112036</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>Ridia Al-Qaddrina</t>
+          <t>Rizkifa Marfinda</t>
         </is>
       </c>
       <c r="D42" s="0" t="inlineStr">
@@ -954,11 +1074,11 @@
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Staf Penagihan</t>
         </is>
       </c>
       <c r="F42" s="0">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -967,12 +1087,12 @@
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>050112008</t>
+          <t>050112049</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>Diana Dwi Wiyanti</t>
+          <t>TB Ali Adiguna</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
@@ -982,11 +1102,11 @@
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Perbendaharaa</t>
+          <t>Staf Penagihan</t>
         </is>
       </c>
       <c r="F43" s="0">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -995,12 +1115,12 @@
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>050112018</t>
+          <t>050112016</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>Makhrur</t>
+          <t>Romyani B Sahrul</t>
         </is>
       </c>
       <c r="D44" s="0" t="inlineStr">
@@ -1010,11 +1130,11 @@
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Verifikasi &amp; Perpajakan</t>
+          <t>Petugas Penagihan</t>
         </is>
       </c>
       <c r="F44" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1023,12 +1143,12 @@
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>050112015</t>
+          <t>050112023</t>
         </is>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>Nana Andi Indah Purnamasari</t>
+          <t>Sulaeman</t>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
@@ -1038,11 +1158,11 @@
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Penagihan</t>
+          <t>Petugas Perbendaharaan</t>
         </is>
       </c>
       <c r="F45" s="0">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1051,26 +1171,26 @@
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>050112024</t>
+          <t>050112004</t>
         </is>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>Risnawati</t>
+          <t>Herny Setiawanti</t>
         </is>
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Komersial Dan Pengembangan Usaha</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
         <is>
-          <t>Staf Verifikasi &amp; Perpajakan</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="F46" s="0">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1079,26 +1199,26 @@
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>050112049</t>
+          <t>050112037</t>
         </is>
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
-          <t>TB Ali Adiguna</t>
+          <t>Antok Subiantoro</t>
         </is>
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>Staf Penagihan</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="F47" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1107,26 +1227,26 @@
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>050112036</t>
+          <t>050112006</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>Rizkifa Marfinda</t>
+          <t>Maurice Agustavio</t>
         </is>
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>Staf Penagihan</t>
+          <t>Supervisor Pemanduan dan Penundaan</t>
         </is>
       </c>
       <c r="F48" s="0">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1135,26 +1255,26 @@
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>050112016</t>
+          <t>050112019</t>
         </is>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>Romyani B Sahrul</t>
+          <t>Alim Denny Kristiawan</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
         <is>
-          <t>Petugas Penagihan</t>
+          <t>Supervisor Tekhnik dan Pengawasan Kapal</t>
         </is>
       </c>
       <c r="F49" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1163,26 +1283,26 @@
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>050112023</t>
+          <t>050112034</t>
         </is>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>Sulaeman</t>
+          <t>Hendriani</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
         <is>
-          <t>Petugas Perbendaharaan</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F50" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1191,26 +1311,26 @@
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>050112004</t>
+          <t>050112055</t>
         </is>
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
-          <t>Herny Setiawanti</t>
+          <t>Ahmad Supiadi</t>
         </is>
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>Komersial Dan Pengembangan Usaha</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F51" s="0">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1219,26 +1339,26 @@
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>050112007</t>
+          <t>050112026</t>
         </is>
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>Marhamah Sam</t>
+          <t>Evan Wilianto</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>Komersial Dan Pengembangan Usaha</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
-          <t>Staf Pengembangan Usaha</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F52" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1247,26 +1367,26 @@
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>050112058</t>
+          <t>050112035</t>
         </is>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>Muhammad Faisal</t>
+          <t>Muhammad Arief Kurniawan</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>Komersial Dan Pengembangan Usaha</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
-          <t>Administrasi KPU</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F53" s="0">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1275,12 +1395,12 @@
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>050112037</t>
+          <t>050112053</t>
         </is>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>Antok Subiantoro</t>
+          <t>Hendra Praja</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
@@ -1290,25 +1410,20 @@
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F54" s="0">
-        <v>36</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="0">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="inlineStr">
-        <is>
-          <t>050112006</t>
-        </is>
-      </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>Maurice Agustavio</t>
+          <t>Aldi Gilang</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
@@ -1318,11 +1433,11 @@
       </c>
       <c r="E55" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Pemanduan dan Penundaan</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F55" s="0">
-        <v>6</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1331,12 +1446,12 @@
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>050112017</t>
+          <t>050112033</t>
         </is>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>Andi Yusuf Izzan</t>
+          <t>Fajar Prasetya</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
@@ -1346,11 +1461,11 @@
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Tekhnik dan Pengawasan Kapal</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F56" s="0">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1359,12 +1474,12 @@
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>050112019</t>
+          <t>050112031</t>
         </is>
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>Alim Denny Kristiawan</t>
+          <t>Dwikania Pratiwi Juandi</t>
         </is>
       </c>
       <c r="D57" s="0" t="inlineStr">
@@ -1374,11 +1489,11 @@
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Tekhnik dan Pengawasan Kapal</t>
+          <t>Staf Tekhnik dan Pengawasan Kapal</t>
         </is>
       </c>
       <c r="F57" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1387,12 +1502,12 @@
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>050112034</t>
+          <t>050112009</t>
         </is>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>Hendriani</t>
+          <t>Bambang Edy Sungkowo</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
@@ -1402,11 +1517,11 @@
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Petugas KPU</t>
         </is>
       </c>
       <c r="F58" s="0">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1415,12 +1530,12 @@
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>050112035</t>
+          <t>050112063</t>
         </is>
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>Muhammad Arief Kurniawan</t>
+          <t>Sarif Hidayatullh</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
@@ -1430,11 +1545,11 @@
       </c>
       <c r="E59" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>staf</t>
         </is>
       </c>
       <c r="F59" s="0">
-        <v>34</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1443,26 +1558,26 @@
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>050112026</t>
+          <t>050112003</t>
         </is>
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
-          <t>Evan Wilianto</t>
+          <t>Dionaldo</t>
         </is>
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>Kepelabuhan</t>
         </is>
       </c>
       <c r="E60" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="F60" s="0">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1471,26 +1586,26 @@
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>050112053</t>
+          <t>050112014</t>
         </is>
       </c>
       <c r="C61" s="0" t="inlineStr">
         <is>
-          <t>Hendra Praja</t>
+          <t>Arifuzzaman</t>
         </is>
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>Kepelabuhan</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Supervisor Operasional Kepelabuhanan</t>
         </is>
       </c>
       <c r="F61" s="0">
-        <v>1002</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1499,26 +1614,26 @@
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>050112033</t>
+          <t>050112041</t>
         </is>
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
-          <t>Fajar Prasetya</t>
+          <t>Suwono </t>
         </is>
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>Pandu</t>
         </is>
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Supervisor Sistem &amp; Information Technology</t>
         </is>
       </c>
       <c r="F62" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1527,26 +1642,26 @@
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>050112031</t>
+          <t>050112042</t>
         </is>
       </c>
       <c r="C63" s="0" t="inlineStr">
         <is>
-          <t>Dwikania Pratiwi Juandi</t>
+          <t>Heri Hermasjah</t>
         </is>
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>Pandu</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>Staf Tekhnik dan Pengawasan Kapal</t>
+          <t>PC.16</t>
         </is>
       </c>
       <c r="F63" s="0">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1555,26 +1670,26 @@
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>050112009</t>
+          <t>050112043</t>
         </is>
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>Bambang Edy Sungkowo</t>
+          <t>Basuki Supangkat</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>Pandu</t>
         </is>
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>Petugas KPU</t>
+          <t>PC.18</t>
         </is>
       </c>
       <c r="F64" s="0">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1583,26 +1698,26 @@
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>050112063</t>
+          <t>050112044</t>
         </is>
       </c>
       <c r="C65" s="0" t="inlineStr">
         <is>
-          <t>Sarif Hidayatullh</t>
+          <t>Supardi</t>
         </is>
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>Pandu</t>
         </is>
       </c>
       <c r="E65" s="0" t="inlineStr">
         <is>
-          <t>staf</t>
+          <t>PC.20</t>
         </is>
       </c>
       <c r="F65" s="0">
-        <v>1009</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1611,26 +1726,26 @@
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>050112003</t>
+          <t>050112057</t>
         </is>
       </c>
       <c r="C66" s="0" t="inlineStr">
         <is>
-          <t>Dionaldo</t>
+          <t>Ferry Anjaya Ferdinandus</t>
         </is>
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t>Kepelabuhan</t>
+          <t>Pandu</t>
         </is>
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>PC.23</t>
         </is>
       </c>
       <c r="F66" s="0">
-        <v>3</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1639,26 +1754,26 @@
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>050112014</t>
+          <t>050112051</t>
         </is>
       </c>
       <c r="C67" s="0" t="inlineStr">
         <is>
-          <t>Arifuzzaman</t>
+          <t>Zaenal Arifin Hamid</t>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>Kepelabuhan</t>
+          <t>Pandu</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Operasional Kepelabuhanan</t>
+          <t>PC.24</t>
         </is>
       </c>
       <c r="F67" s="0">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1667,26 +1782,26 @@
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>050112055</t>
+          <t>050112054</t>
         </is>
       </c>
       <c r="C68" s="0" t="inlineStr">
         <is>
-          <t>Ahmad Supiadi</t>
+          <t>Agus Gusniadi</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>Kepelabuhan</t>
+          <t>Pandu</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
         <is>
-          <t>Administrasi Kepelabuhanan</t>
+          <t>PC.25</t>
         </is>
       </c>
       <c r="F68" s="0">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1695,26 +1810,26 @@
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>050112062</t>
+          <t>0501120nn</t>
         </is>
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
-          <t>Abdur Rachmandya</t>
+          <t>Fatmawati</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>Kepelabuhan</t>
+          <t>THL</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
         <is>
-          <t>staf</t>
+          <t>Tenega Kebersihan</t>
         </is>
       </c>
       <c r="F69" s="0">
-        <v>1010</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1723,277 +1838,25 @@
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>050112061</t>
+          <t>0501120nn</t>
         </is>
       </c>
       <c r="C70" s="0" t="inlineStr">
         <is>
-          <t>Iswansyah</t>
+          <t>Yoyok</t>
         </is>
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>Kepelabuhan</t>
+          <t>THL</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
         <is>
-          <t>staf</t>
+          <t>Tenega Kebersihan</t>
         </is>
       </c>
       <c r="F70" s="0">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="0">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="inlineStr">
-        <is>
-          <t>050112041</t>
-        </is>
-      </c>
-      <c r="C71" s="0" t="inlineStr">
-        <is>
-          <t>Suwono</t>
-        </is>
-      </c>
-      <c r="D71" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E71" s="0" t="inlineStr">
-        <is>
-          <t>PC.15</t>
-        </is>
-      </c>
-      <c r="F71" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="0">
-        <v>71</v>
-      </c>
-      <c r="B72" s="0" t="inlineStr">
-        <is>
-          <t>050112042</t>
-        </is>
-      </c>
-      <c r="C72" s="0" t="inlineStr">
-        <is>
-          <t>Heri Hermasjah</t>
-        </is>
-      </c>
-      <c r="D72" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E72" s="0" t="inlineStr">
-        <is>
-          <t>PC.16</t>
-        </is>
-      </c>
-      <c r="F72" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="0">
-        <v>72</v>
-      </c>
-      <c r="B73" s="0" t="inlineStr">
-        <is>
-          <t>050112043</t>
-        </is>
-      </c>
-      <c r="C73" s="0" t="inlineStr">
-        <is>
-          <t>Basuki Supangkat</t>
-        </is>
-      </c>
-      <c r="D73" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E73" s="0" t="inlineStr">
-        <is>
-          <t>PC.18</t>
-        </is>
-      </c>
-      <c r="F73" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="0">
-        <v>73</v>
-      </c>
-      <c r="B74" s="0" t="inlineStr">
-        <is>
-          <t>050112044</t>
-        </is>
-      </c>
-      <c r="C74" s="0" t="inlineStr">
-        <is>
-          <t>Supardi</t>
-        </is>
-      </c>
-      <c r="D74" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E74" s="0" t="inlineStr">
-        <is>
-          <t>PC.20</t>
-        </is>
-      </c>
-      <c r="F74" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="0">
-        <v>74</v>
-      </c>
-      <c r="B75" s="0" t="inlineStr">
-        <is>
-          <t>050112057</t>
-        </is>
-      </c>
-      <c r="C75" s="0" t="inlineStr">
-        <is>
-          <t>Ferry Anjaya Ferdinandus</t>
-        </is>
-      </c>
-      <c r="D75" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E75" s="0" t="inlineStr">
-        <is>
-          <t>PC.23</t>
-        </is>
-      </c>
-      <c r="F75" s="0">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="0">
-        <v>75</v>
-      </c>
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>050112051</t>
-        </is>
-      </c>
-      <c r="C76" s="0" t="inlineStr">
-        <is>
-          <t>Zaenal Arifin Hamid</t>
-        </is>
-      </c>
-      <c r="D76" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E76" s="0" t="inlineStr">
-        <is>
-          <t>PC.24</t>
-        </is>
-      </c>
-      <c r="F76" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="0">
-        <v>76</v>
-      </c>
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>050112054</t>
-        </is>
-      </c>
-      <c r="C77" s="0" t="inlineStr">
-        <is>
-          <t>Agus Gusniadi</t>
-        </is>
-      </c>
-      <c r="D77" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E77" s="0" t="inlineStr">
-        <is>
-          <t>PC.25</t>
-        </is>
-      </c>
-      <c r="F77" s="0">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="0">
-        <v>77</v>
-      </c>
-      <c r="B78" s="0" t="inlineStr">
-        <is>
-          <t>0501120nn</t>
-        </is>
-      </c>
-      <c r="C78" s="0" t="inlineStr">
-        <is>
-          <t>Fatmawati</t>
-        </is>
-      </c>
-      <c r="D78" s="0" t="inlineStr">
-        <is>
-          <t>THL</t>
-        </is>
-      </c>
-      <c r="E78" s="0" t="inlineStr">
-        <is>
-          <t>Tenega Kebersihan</t>
-        </is>
-      </c>
-      <c r="F78" s="0">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="0">
-        <v>78</v>
-      </c>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>0501120nn</t>
-        </is>
-      </c>
-      <c r="C79" s="0" t="inlineStr">
-        <is>
-          <t>Yoyok</t>
-        </is>
-      </c>
-      <c r="D79" s="0" t="inlineStr">
-        <is>
-          <t>THL</t>
-        </is>
-      </c>
-      <c r="E79" s="0" t="inlineStr">
-        <is>
-          <t>Tenega Kebersihan</t>
-        </is>
-      </c>
-      <c r="F79" s="0">
         <v>133</v>
       </c>
     </row>

--- a/public/files/tmp/data_pegawai.xlsx
+++ b/public/files/tmp/data_pegawai.xlsx
@@ -89,11 +89,21 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Rahadian</t>
+          <t>H. Samsul Rizal, SH, MH</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
         </is>
       </c>
       <c r="F2" s="0">
-        <v>1011</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -102,11 +112,21 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Dani Setiawan</t>
+          <t>H. Abdul Hakim Lubis, SH., Msi</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
         </is>
       </c>
       <c r="F3" s="0">
-        <v>1015</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -115,11 +135,21 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Ahmad Ardiansyah</t>
+          <t>Dra. Hj. RT. Ati Marliati, MM</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Komisaris</t>
         </is>
       </c>
       <c r="F4" s="0">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -128,11 +158,21 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Sudarto</t>
+          <t>H. Arief Rivai, SH.,MH.,M.Si</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Direksi</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Dereksi</t>
         </is>
       </c>
       <c r="F5" s="0">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -141,188 +181,273 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Deni Sukmana</t>
+          <t>Drs. Akmal Firmansyah</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Direksi</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>Dewan Dereksi</t>
         </is>
       </c>
       <c r="F6" s="0">
-        <v>1016</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="0">
         <v>6</v>
       </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>050112020</t>
+        </is>
+      </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Siswandi</t>
+          <t>Ilham</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>SDM Dan Umum</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor SDM, Umum &amp; Pelatihan</t>
         </is>
       </c>
       <c r="F7" s="0">
-        <v>1013</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="0">
         <v>7</v>
       </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>050112033</t>
+        </is>
+      </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Dodo Sandra</t>
+          <t>Fajar Prasetya</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>SDM Dan Umum</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Supervisor SDM, Umum &amp; Pelatihan</t>
         </is>
       </c>
       <c r="F8" s="0">
-        <v>1014</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="0">
         <v>8</v>
       </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>050112059</t>
+        </is>
+      </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Jarot</t>
+          <t>Fenny Pattimeta</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>SDM Dan Umum</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Staf SDM</t>
         </is>
       </c>
       <c r="F9" s="0">
-        <v>1018</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="0">
         <v>9</v>
       </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>050112045</t>
+        </is>
+      </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>H. Samsul Rizal, SH, MH</t>
+          <t>Ferry Margana</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>Petugas Aset</t>
         </is>
       </c>
       <c r="F10" s="0">
-        <v>136</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="0">
         <v>10</v>
       </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>150112070</t>
+        </is>
+      </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>H. Abdul Hakim Lubis, SH., Msi</t>
+          <t>Suyono</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>Petugas Aset</t>
         </is>
       </c>
       <c r="F11" s="0">
-        <v>1006</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="0">
         <v>11</v>
       </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>050112052</t>
+        </is>
+      </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>Dra. Hj. RT. Ati Marliati, MM</t>
+          <t>Shaomi Safitri</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>Dewan Komisaris</t>
+          <t>Staf Legal &amp; Procurement</t>
         </is>
       </c>
       <c r="F12" s="0">
-        <v>1007</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="0">
         <v>12</v>
       </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>050112011</t>
+        </is>
+      </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>Ir. H. Zamhari Hamid</t>
+          <t>Suntani</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Dewan Direksi</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>Dewan Dereksi</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F13" s="0">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="0">
         <v>13</v>
       </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>050112021</t>
+        </is>
+      </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>H. Arief Rivai, SH.,MH.,M.Si</t>
+          <t>Samun Darimi</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>Dewan Direksi</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>Dewan Dereksi</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F14" s="0">
-        <v>1005</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="0">
         <v>14</v>
       </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>050112025</t>
+        </is>
+      </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>Drs. Akmal Firmansyah</t>
+          <t>Yuri Setiawan</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Dewan Direksi</t>
+          <t>SDM Dan Umum</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>Dewan Dereksi</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F15" s="0">
-        <v>145</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -331,12 +456,12 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>050112002</t>
+          <t>050112056</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>Komawati</t>
+          <t>Diki Gunawan</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -346,11 +471,11 @@
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F16" s="0">
-        <v>2</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -359,12 +484,12 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>050112020</t>
+          <t>050112001</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>Ilham</t>
+          <t>Hambali B.H. Ahmad</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -374,11 +499,11 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Supervisor SDM, Umum &amp; Pelatihan</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F17" s="0">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -387,12 +512,12 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>050112029</t>
+          <t>050112022</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>Bambang Andrianto</t>
+          <t>Isnaidi</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -402,11 +527,11 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Staf SDM &amp; Legal</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F18" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -415,12 +540,12 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>050112052</t>
+          <t>050112027</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>Shaomi Safitri</t>
+          <t>Muis Sutomi</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
@@ -430,11 +555,11 @@
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Staf Umum &amp; Aset</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F19" s="0">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -443,12 +568,12 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>050112045</t>
+          <t>050112032</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>Ferry Margana</t>
+          <t>Sarwoko</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
@@ -458,11 +583,11 @@
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Petugas Aset</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F20" s="0">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -471,12 +596,12 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>150112070</t>
+          <t>050112060</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>Suyono</t>
+          <t>Rahmatulloh</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
@@ -486,25 +611,20 @@
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Petugas Aset</t>
+          <t>Petugas Driver</t>
         </is>
       </c>
       <c r="F21" s="0">
-        <v>1020</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="0">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>050112010</t>
-        </is>
-      </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>Husni</t>
+          <t>Heru Kurniawan S</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
@@ -514,11 +634,11 @@
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>Petugas Aset</t>
+          <t>Sekretaris</t>
         </is>
       </c>
       <c r="F22" s="0">
-        <v>10</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -527,12 +647,12 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>050112030</t>
+          <t>050112029</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>Muhammad Yusuf</t>
+          <t>Bambang Andrianto</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
@@ -542,11 +662,11 @@
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>Staf Legal &amp; Procurement</t>
+          <t>Sekretaris</t>
         </is>
       </c>
       <c r="F23" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -555,12 +675,12 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>050112013</t>
+          <t>050112017</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>Oyo Sutaryo</t>
+          <t>Andi Yusuf Izzan</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -570,11 +690,11 @@
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Supervisor Sistem &amp; Information Technology</t>
         </is>
       </c>
       <c r="F24" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -583,26 +703,26 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>050112021</t>
+          <t>050112005</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>Samun Darimi</t>
+          <t>Ridia Al-Qaddrina</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="F25" s="0">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -611,26 +731,26 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>050112025</t>
+          <t>050112007</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>Yuri Setiawan</t>
+          <t>Marhamah Sam</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Supervisor Perbendaharaan</t>
         </is>
       </c>
       <c r="F26" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -639,26 +759,26 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>050112001</t>
+          <t>050112018</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>Hambali B.H. Ahmad</t>
+          <t>Makhrur</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Supervisor Verifikasi &amp; Perpajakan</t>
         </is>
       </c>
       <c r="F27" s="0">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -667,26 +787,26 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>050112022</t>
+          <t>050112014</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>Isnaidi</t>
+          <t>Arifuzzaman</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Supervisor Penagihan</t>
         </is>
       </c>
       <c r="F28" s="0">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -695,26 +815,26 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>050112060</t>
+          <t>050112015</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>Rahmatulloh</t>
+          <t>Nana Andi Indah Purnamasari</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Supervisor Penagihan</t>
         </is>
       </c>
       <c r="F29" s="0">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -723,26 +843,26 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>050112027</t>
+          <t>050112036</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>Muis Sutomi</t>
+          <t>Rizkifa Marfinda</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Staf Verifikasi &amp; Perpajakan</t>
         </is>
       </c>
       <c r="F30" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -751,26 +871,26 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>050112032</t>
+          <t>050112049</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>Sarwoko</t>
+          <t>TB Ali Adiguna</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Staf Penagihan</t>
         </is>
       </c>
       <c r="F31" s="0">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -779,26 +899,26 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>050112011</t>
+          <t>050112016</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>Suntani</t>
+          <t>Romyani B Sahrul</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Petugas Penagihan</t>
         </is>
       </c>
       <c r="F32" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -807,26 +927,26 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>050112056</t>
+          <t>050112023</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>Diki Gunawan</t>
+          <t>Sulaeman</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
-          <t>Petugas Driver</t>
+          <t>Petugas Perbendaharaan</t>
         </is>
       </c>
       <c r="F33" s="0">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -835,222 +955,187 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>050112017</t>
+          <t>050112024</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>Andi Yusuf Izzan</t>
+          <t>Risnawati</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Keuangan</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Sistem &amp; Information Technology</t>
+          <t>Petugas Perbendaharaan</t>
         </is>
       </c>
       <c r="F34" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="0">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>050112059</t>
-        </is>
-      </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>Fenny Pattimeta</t>
+          <t>Rahadian</t>
         </is>
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>SDM Dan Umum</t>
+          <t>Komersial Dan Operasi</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>Administrasi Resepsionis</t>
+          <t>Marine Operator</t>
         </is>
       </c>
       <c r="F35" s="0">
-        <v>43</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="0">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>050112005</t>
-        </is>
-      </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>Ridia Al-Qaddrina</t>
+          <t>Sudarto</t>
         </is>
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Komersial Dan Operasi</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Marine Operator</t>
         </is>
       </c>
       <c r="F36" s="0">
-        <v>5</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="0">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>050112008</t>
-        </is>
-      </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>Diana Dwi Wiyanti</t>
+          <t>Dodo Sandra</t>
         </is>
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Komersial Dan Operasi</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Perbendaharaa</t>
+          <t>Electrician</t>
         </is>
       </c>
       <c r="F37" s="0">
-        <v>8</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="0">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>050112007</t>
-        </is>
-      </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>Marhamah Sam</t>
+          <t>Siswandi</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Komersial Dan Operasi</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Perbendaharaa</t>
+          <t>Technician</t>
         </is>
       </c>
       <c r="F38" s="0">
-        <v>7</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="0">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t>050112018</t>
-        </is>
-      </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>Makhrur</t>
+          <t>Deni Sukmana</t>
         </is>
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Komersial Dan Operasi</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Verifikasi &amp; Perpajakan</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="F39" s="0">
-        <v>17</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="0">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t>050112015</t>
-        </is>
-      </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>Nana Andi Indah Purnamasari</t>
+          <t>Jarot</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Komersial Dan Operasi</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Penagihan</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="F40" s="0">
-        <v>14</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="0">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>050112024</t>
-        </is>
-      </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>Risnawati</t>
+          <t>Ahmad Ardiansyah</t>
         </is>
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Komersial Dan Operasi</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
-          <t>Staf Verifikasi &amp; Perpajakan</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="F41" s="0">
-        <v>23</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1059,26 +1144,26 @@
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>050112036</t>
+          <t>050112037</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>Rizkifa Marfinda</t>
+          <t>Antok Subiantoro</t>
         </is>
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>Staf Penagihan</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="F42" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1087,26 +1172,26 @@
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>050112049</t>
+          <t>050112006</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>TB Ali Adiguna</t>
+          <t>Maurice Agustavio</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
-          <t>Staf Penagihan</t>
+          <t>Supervisor Pemanduan dan Penundaan</t>
         </is>
       </c>
       <c r="F43" s="0">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1115,26 +1200,26 @@
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>050112016</t>
+          <t>050112019</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>Romyani B Sahrul</t>
+          <t>Alim Denny Kristiawan</t>
         </is>
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>Petugas Penagihan</t>
+          <t>Supervisor Pengoperasian Kapal Tunda</t>
         </is>
       </c>
       <c r="F44" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1143,26 +1228,26 @@
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>050112023</t>
+          <t>050112034</t>
         </is>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>Sulaeman</t>
+          <t>Hendriani</t>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>Keuangan</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
-          <t>Petugas Perbendaharaan</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F45" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1171,26 +1256,26 @@
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>050112004</t>
+          <t>050112035</t>
         </is>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>Herny Setiawanti</t>
+          <t>Muhammad Arief Kurniawan</t>
         </is>
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>Komersial Dan Pengembangan Usaha</t>
+          <t>Pemanduan Dan Penundaan</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F46" s="0">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1199,12 +1284,12 @@
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>050112037</t>
+          <t>050112055</t>
         </is>
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
-          <t>Antok Subiantoro</t>
+          <t>Ahmad Supiadi</t>
         </is>
       </c>
       <c r="D47" s="0" t="inlineStr">
@@ -1214,11 +1299,11 @@
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F47" s="0">
-        <v>36</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1227,12 +1312,12 @@
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>050112006</t>
+          <t>050112019</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>Maurice Agustavio</t>
+          <t>Aldi Gilang</t>
         </is>
       </c>
       <c r="D48" s="0" t="inlineStr">
@@ -1242,11 +1327,11 @@
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Pemanduan dan Penundaan</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F48" s="0">
-        <v>6</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1255,12 +1340,12 @@
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>050112019</t>
+          <t>050112053</t>
         </is>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>Alim Denny Kristiawan</t>
+          <t>Hendra Praja</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
@@ -1270,11 +1355,11 @@
       </c>
       <c r="E49" s="0" t="inlineStr">
         <is>
-          <t>Supervisor Tekhnik dan Pengawasan Kapal</t>
+          <t>Staf Dispatcher</t>
         </is>
       </c>
       <c r="F49" s="0">
-        <v>18</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1283,12 +1368,12 @@
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>050112034</t>
+          <t>050112026</t>
         </is>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>Hendriani</t>
+          <t>Evan Wilianto</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
@@ -1298,11 +1383,11 @@
       </c>
       <c r="E50" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Supervisor Komersil</t>
         </is>
       </c>
       <c r="F50" s="0">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1311,12 +1396,12 @@
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>050112055</t>
+          <t>050112031</t>
         </is>
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
-          <t>Ahmad Supiadi</t>
+          <t>Dwikania Pratiwi Juandi</t>
         </is>
       </c>
       <c r="D51" s="0" t="inlineStr">
@@ -1326,11 +1411,11 @@
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Staf Pemanduan &amp; Penundaan</t>
         </is>
       </c>
       <c r="F51" s="0">
-        <v>185</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1339,26 +1424,26 @@
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>050112026</t>
+          <t>050112002</t>
         </is>
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>Evan Wilianto</t>
+          <t>Komawati</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>Staf Ahli</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="F52" s="0">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1367,26 +1452,26 @@
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>050112035</t>
+          <t>050112063</t>
         </is>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>Muhammad Arief Kurniawan</t>
+          <t>Sarif Hidayatullh</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>Staf Ahli</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Staf SA</t>
         </is>
       </c>
       <c r="F53" s="0">
-        <v>34</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1395,49 +1480,54 @@
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>050112053</t>
+          <t>050112003</t>
         </is>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>Hendra Praja</t>
+          <t>Dionaldo</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="F54" s="0">
-        <v>1002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="0">
         <v>54</v>
       </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>050112008</t>
+        </is>
+      </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>Aldi Gilang</t>
+          <t>Diana Dwi Wiyanti</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="E55" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Supervisor SPI</t>
         </is>
       </c>
       <c r="F55" s="0">
-        <v>1017</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1446,26 +1536,26 @@
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>050112033</t>
+          <t>050112030</t>
         </is>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>Fajar Prasetya</t>
+          <t>Muhammad Yusuf</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
-          <t>Staf Dispatcher</t>
+          <t>Staf SPI</t>
         </is>
       </c>
       <c r="F56" s="0">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1474,26 +1564,26 @@
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>050112031</t>
+          <t>0501120nn</t>
         </is>
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>Dwikania Pratiwi Juandi</t>
+          <t>Fatmawati</t>
         </is>
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
-          <t>Staf Tekhnik dan Pengawasan Kapal</t>
+          <t>Tenega Kebersihan</t>
         </is>
       </c>
       <c r="F57" s="0">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1502,361 +1592,25 @@
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>050112009</t>
+          <t>0501120nn</t>
         </is>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>Bambang Edy Sungkowo</t>
+          <t>Yoyok</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>Pemanduan Dan Penundaan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
-          <t>Petugas KPU</t>
+          <t>Tenega Kebersihan</t>
         </is>
       </c>
       <c r="F58" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="0">
-        <v>58</v>
-      </c>
-      <c r="B59" s="0" t="inlineStr">
-        <is>
-          <t>050112063</t>
-        </is>
-      </c>
-      <c r="C59" s="0" t="inlineStr">
-        <is>
-          <t>Sarif Hidayatullh</t>
-        </is>
-      </c>
-      <c r="D59" s="0" t="inlineStr">
-        <is>
-          <t>Pemanduan Dan Penundaan</t>
-        </is>
-      </c>
-      <c r="E59" s="0" t="inlineStr">
-        <is>
-          <t>staf</t>
-        </is>
-      </c>
-      <c r="F59" s="0">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="0">
-        <v>59</v>
-      </c>
-      <c r="B60" s="0" t="inlineStr">
-        <is>
-          <t>050112003</t>
-        </is>
-      </c>
-      <c r="C60" s="0" t="inlineStr">
-        <is>
-          <t>Dionaldo</t>
-        </is>
-      </c>
-      <c r="D60" s="0" t="inlineStr">
-        <is>
-          <t>Kepelabuhan</t>
-        </is>
-      </c>
-      <c r="E60" s="0" t="inlineStr">
-        <is>
-          <t>Manager</t>
-        </is>
-      </c>
-      <c r="F60" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="0">
-        <v>60</v>
-      </c>
-      <c r="B61" s="0" t="inlineStr">
-        <is>
-          <t>050112014</t>
-        </is>
-      </c>
-      <c r="C61" s="0" t="inlineStr">
-        <is>
-          <t>Arifuzzaman</t>
-        </is>
-      </c>
-      <c r="D61" s="0" t="inlineStr">
-        <is>
-          <t>Kepelabuhan</t>
-        </is>
-      </c>
-      <c r="E61" s="0" t="inlineStr">
-        <is>
-          <t>Supervisor Operasional Kepelabuhanan</t>
-        </is>
-      </c>
-      <c r="F61" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="0">
-        <v>61</v>
-      </c>
-      <c r="B62" s="0" t="inlineStr">
-        <is>
-          <t>050112041</t>
-        </is>
-      </c>
-      <c r="C62" s="0" t="inlineStr">
-        <is>
-          <t>Suwono </t>
-        </is>
-      </c>
-      <c r="D62" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E62" s="0" t="inlineStr">
-        <is>
-          <t>Supervisor Sistem &amp; Information Technology</t>
-        </is>
-      </c>
-      <c r="F62" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="0">
-        <v>62</v>
-      </c>
-      <c r="B63" s="0" t="inlineStr">
-        <is>
-          <t>050112042</t>
-        </is>
-      </c>
-      <c r="C63" s="0" t="inlineStr">
-        <is>
-          <t>Heri Hermasjah</t>
-        </is>
-      </c>
-      <c r="D63" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E63" s="0" t="inlineStr">
-        <is>
-          <t>PC.16</t>
-        </is>
-      </c>
-      <c r="F63" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="0">
-        <v>63</v>
-      </c>
-      <c r="B64" s="0" t="inlineStr">
-        <is>
-          <t>050112043</t>
-        </is>
-      </c>
-      <c r="C64" s="0" t="inlineStr">
-        <is>
-          <t>Basuki Supangkat</t>
-        </is>
-      </c>
-      <c r="D64" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E64" s="0" t="inlineStr">
-        <is>
-          <t>PC.18</t>
-        </is>
-      </c>
-      <c r="F64" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="0">
-        <v>64</v>
-      </c>
-      <c r="B65" s="0" t="inlineStr">
-        <is>
-          <t>050112044</t>
-        </is>
-      </c>
-      <c r="C65" s="0" t="inlineStr">
-        <is>
-          <t>Supardi</t>
-        </is>
-      </c>
-      <c r="D65" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E65" s="0" t="inlineStr">
-        <is>
-          <t>PC.20</t>
-        </is>
-      </c>
-      <c r="F65" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="0">
-        <v>65</v>
-      </c>
-      <c r="B66" s="0" t="inlineStr">
-        <is>
-          <t>050112057</t>
-        </is>
-      </c>
-      <c r="C66" s="0" t="inlineStr">
-        <is>
-          <t>Ferry Anjaya Ferdinandus</t>
-        </is>
-      </c>
-      <c r="D66" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E66" s="0" t="inlineStr">
-        <is>
-          <t>PC.23</t>
-        </is>
-      </c>
-      <c r="F66" s="0">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="0">
-        <v>66</v>
-      </c>
-      <c r="B67" s="0" t="inlineStr">
-        <is>
-          <t>050112051</t>
-        </is>
-      </c>
-      <c r="C67" s="0" t="inlineStr">
-        <is>
-          <t>Zaenal Arifin Hamid</t>
-        </is>
-      </c>
-      <c r="D67" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E67" s="0" t="inlineStr">
-        <is>
-          <t>PC.24</t>
-        </is>
-      </c>
-      <c r="F67" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="0">
-        <v>67</v>
-      </c>
-      <c r="B68" s="0" t="inlineStr">
-        <is>
-          <t>050112054</t>
-        </is>
-      </c>
-      <c r="C68" s="0" t="inlineStr">
-        <is>
-          <t>Agus Gusniadi</t>
-        </is>
-      </c>
-      <c r="D68" s="0" t="inlineStr">
-        <is>
-          <t>Pandu</t>
-        </is>
-      </c>
-      <c r="E68" s="0" t="inlineStr">
-        <is>
-          <t>PC.25</t>
-        </is>
-      </c>
-      <c r="F68" s="0">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="0">
-        <v>68</v>
-      </c>
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>0501120nn</t>
-        </is>
-      </c>
-      <c r="C69" s="0" t="inlineStr">
-        <is>
-          <t>Fatmawati</t>
-        </is>
-      </c>
-      <c r="D69" s="0" t="inlineStr">
-        <is>
-          <t>THL</t>
-        </is>
-      </c>
-      <c r="E69" s="0" t="inlineStr">
-        <is>
-          <t>Tenega Kebersihan</t>
-        </is>
-      </c>
-      <c r="F69" s="0">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="0">
-        <v>69</v>
-      </c>
-      <c r="B70" s="0" t="inlineStr">
-        <is>
-          <t>0501120nn</t>
-        </is>
-      </c>
-      <c r="C70" s="0" t="inlineStr">
-        <is>
-          <t>Yoyok</t>
-        </is>
-      </c>
-      <c r="D70" s="0" t="inlineStr">
-        <is>
-          <t>THL</t>
-        </is>
-      </c>
-      <c r="E70" s="0" t="inlineStr">
-        <is>
-          <t>Tenega Kebersihan</t>
-        </is>
-      </c>
-      <c r="F70" s="0">
         <v>133</v>
       </c>
     </row>
